--- a/biology/Médecine/Psychiatrie_transculturelle/Psychiatrie_transculturelle.xlsx
+++ b/biology/Médecine/Psychiatrie_transculturelle/Psychiatrie_transculturelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La psychiatrie transculturelle est une branche de la psychiatrie qui vise à rendre compte de l'hétérogénéité culturelle dans laquelle cette discipline se développe, et de la nécessité d'articuler les savoirs académiques et les savoirs locaux, pour parvenir à des diagnostics et à des soins pertinents, lorsqu'on est dans une situation transculturelle. Cette discipline doit donc s'adosser à d'autres, comme l'anthropologie et la sociologie. Prendre en compte des langues, traditions et manières de penser différentes permet d'éviter les erreurs de diagnostic[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La psychiatrie transculturelle est une branche de la psychiatrie qui vise à rendre compte de l'hétérogénéité culturelle dans laquelle cette discipline se développe, et de la nécessité d'articuler les savoirs académiques et les savoirs locaux, pour parvenir à des diagnostics et à des soins pertinents, lorsqu'on est dans une situation transculturelle. Cette discipline doit donc s'adosser à d'autres, comme l'anthropologie et la sociologie. Prendre en compte des langues, traditions et manières de penser différentes permet d'éviter les erreurs de diagnostic.
 Depuis le XIXe siècle, la psychiatrie a été concernée par la rencontre avec des patients issus de cultures non-occidentales. Différents termes ont été utilisés par les chercheurs qui se sont intéressés à ces questions, tandis que les concepts se modifiaient.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Kraepelin à Java</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1904, Emil Kraepelin effectue un voyage d'étude à Java afin d'y tester la valeur universelle de sa classification. Il y identifie un certain nombre de troubles spécifiques à cette région comme l'amok et le latah pour lesquels il trouve des correspondances avec les entités diagnostiques qu'il a défini préalablement. Ce voyage marque la naissance de la « psychiatrie comparée »[2]. Ainsi, pour Kraepelin, même s'il existe à Java des tableaux cliniques d'allure exotique, ceux-ci sont réintégrés dans sa nosologie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1904, Emil Kraepelin effectue un voyage d'étude à Java afin d'y tester la valeur universelle de sa classification. Il y identifie un certain nombre de troubles spécifiques à cette région comme l'amok et le latah pour lesquels il trouve des correspondances avec les entités diagnostiques qu'il a défini préalablement. Ce voyage marque la naissance de la « psychiatrie comparée ». Ainsi, pour Kraepelin, même s'il existe à Java des tableaux cliniques d'allure exotique, ceux-ci sont réintégrés dans sa nosologie.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Psychiatrie coloniale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Étude de Carothers
 École d'Alger</t>
